--- a/StructureDefinition-ext-R5-RiskAssessment.prediction.xlsx
+++ b/StructureDefinition-ext-R5-RiskAssessment.prediction.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="185">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -486,15 +486,6 @@
   </si>
   <si>
     <t>Extension.extension:qualitativeRisk.value[x]</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>The likelihood of the occurrence of a specified outcome.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-risk-probability-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:relativeRisk</t>
@@ -960,8 +951,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="46.0078125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2929,13 +2920,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -2973,13 +2964,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3004,14 +2995,14 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3080,7 +3071,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>106</v>
@@ -3183,7 +3174,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>108</v>
@@ -3288,7 +3279,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>114</v>
@@ -3331,7 +3322,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3393,7 +3384,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>123</v>
@@ -3419,13 +3410,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3496,13 +3487,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3527,16 +3518,16 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3605,7 +3596,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -3708,7 +3699,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -3813,7 +3804,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>114</v>
@@ -3856,7 +3847,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3918,7 +3909,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>123</v>
@@ -3944,16 +3935,16 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4023,13 +4014,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4054,14 +4045,14 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4130,7 +4121,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>106</v>
@@ -4233,7 +4224,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>108</v>
@@ -4338,7 +4329,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>114</v>
@@ -4381,7 +4372,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4443,7 +4434,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>123</v>
@@ -4472,10 +4463,10 @@
         <v>88</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4677,13 +4668,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
